--- a/biology/Zoologie/Ansistaria/Ansistaria.xlsx
+++ b/biology/Zoologie/Ansistaria/Ansistaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ansistaria est un genre d'araignées aranéomorphes de la famille des Thomisidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ansistaria est un genre d'araignées aranéomorphes de la famille des Thomisidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.5, 14/08/2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.5, 14/08/2022) :
 Ansistaria silva (Lewis &amp; Dippenaar-Schoeman, 2014)
 Ansistaria unicolor (Simon, 1895)</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Leroya Lewis &amp; Dippenaar-Schoeman, 2014[3], préoccupé par Leroya Grandidier, 1887 a été remplacé par Ansistaria par Sherwood en 2022[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leroya Lewis &amp; Dippenaar-Schoeman, 2014, préoccupé par Leroya Grandidier, 1887 a été remplacé par Ansistaria par Sherwood en 2022.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur d'Ansie S. Dippenaar-Schoeman[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur d'Ansie S. Dippenaar-Schoeman.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Sherwood, 2022 : « Replacement names for Leroya Lewis &amp; Dippenaar-Schoeman, 2014 (Araneidae: Thomisidae) and Tangaroa Lehtinen, 1967 (Araneae: Uloboridae). » Revista Ibérica de Aracnología, no 40, p. 203-204.
 Lewis &amp; Dippenaar-Schoeman, 2014 : « Revision of the spider genus Mystaria Simon, 1895 (Araneae: Thomisidae) and the description of a new genus from the Afrotropical region. » Zootaxa, no 3873(2), p. 101-144.</t>
